--- a/Documents/OnlineExm.xlsx
+++ b/Documents/OnlineExm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>tblUser</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">(MidExam/FinalExam/PracticalTest,etc) </t>
-  </si>
-  <si>
-    <t>TotalQues</t>
-  </si>
-  <si>
-    <t>(10/15/20)</t>
   </si>
   <si>
     <t>Based On QdID get Ques And their Ans</t>
@@ -497,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -556,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -579,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -625,7 +619,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -633,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -644,25 +638,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -670,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -678,20 +664,20 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -699,28 +685,28 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
         <v>37</v>
-      </c>
-      <c r="D46" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/OnlineExm.xlsx
+++ b/Documents/OnlineExm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>tblUser</t>
   </si>
@@ -102,9 +102,6 @@
     <t>QpdID</t>
   </si>
   <si>
-    <t>get paper type and max ques limit</t>
-  </si>
-  <si>
     <t>APID</t>
   </si>
   <si>
@@ -129,10 +126,10 @@
     <t>tblAssignPaperResult</t>
   </si>
   <si>
-    <t>total + result marks (Prepare str and insert)</t>
-  </si>
-  <si>
     <t>Primary key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get paper type </t>
   </si>
 </sst>
 </file>
@@ -491,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -550,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -573,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -627,7 +624,7 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -648,7 +645,7 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -656,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -669,15 +666,15 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -685,28 +682,25 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
         <v>31</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
